--- a/psp.xlsx
+++ b/psp.xlsx
@@ -484,7 +484,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>17-05-2024</t>
+          <t>27-05-2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -494,49 +494,49 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.2006</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>226371</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>353.76</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>211334</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>115.65</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5016.28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>79.69</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>17-05-2023</t>
+          <t>27-05-2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -546,42 +546,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15.225</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>215113</t>
+          <t>194797</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>338.73</t>
+          <t>317.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>203267</t>
+          <t>190373</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>679</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>326.9</t>
+          <t>371.3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4669.06</t>
+          <t>4296.32</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>71.79</t>
+          <t>66.77</t>
         </is>
       </c>
     </row>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>536</v>
+        <v>919</v>
       </c>
       <c r="C2" t="n">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -640,13 +640,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>705</v>
+        <v>812</v>
       </c>
       <c r="C3" t="n">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
